--- a/natmiOut/OldD2/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Agrp</t>
   </si>
   <si>
@@ -91,7 +97,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.09442375279352</v>
+        <v>0.222768</v>
       </c>
       <c r="H2">
-        <v>1.09442375279352</v>
+        <v>0.668304</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.963135699297352</v>
+        <v>0.9666250000000001</v>
       </c>
       <c r="N2">
-        <v>0.963135699297352</v>
+        <v>1.93325</v>
       </c>
       <c r="O2">
-        <v>0.386047822164669</v>
+        <v>0.322724746715536</v>
       </c>
       <c r="P2">
-        <v>0.386047822164669</v>
+        <v>0.2550922792114143</v>
       </c>
       <c r="Q2">
-        <v>1.054078586474419</v>
+        <v>0.215333118</v>
       </c>
       <c r="R2">
-        <v>1.054078586474419</v>
+        <v>1.291998708</v>
       </c>
       <c r="S2">
-        <v>0.386047822164669</v>
+        <v>0.05208827913077448</v>
       </c>
       <c r="T2">
-        <v>0.386047822164669</v>
+        <v>0.04117229304197623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.09442375279352</v>
+        <v>0.222768</v>
       </c>
       <c r="H3">
-        <v>1.09442375279352</v>
+        <v>0.668304</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.0627334391715</v>
+        <v>1.093967666666667</v>
       </c>
       <c r="N3">
-        <v>1.0627334391715</v>
+        <v>3.281903</v>
       </c>
       <c r="O3">
-        <v>0.4259689782374722</v>
+        <v>0.3652403342971534</v>
       </c>
       <c r="P3">
-        <v>0.4259689782374722</v>
+        <v>0.4330470018987601</v>
       </c>
       <c r="Q3">
-        <v>1.163080718717237</v>
+        <v>0.243700989168</v>
       </c>
       <c r="R3">
-        <v>1.163080718717237</v>
+        <v>2.193308902512</v>
       </c>
       <c r="S3">
-        <v>0.4259689782374722</v>
+        <v>0.05895036149631489</v>
       </c>
       <c r="T3">
-        <v>0.4259689782374722</v>
+        <v>0.06989446375344156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,805 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.222768</v>
+      </c>
+      <c r="H4">
+        <v>0.668304</v>
+      </c>
+      <c r="I4">
+        <v>0.1614015648347147</v>
+      </c>
+      <c r="J4">
+        <v>0.1614015648347147</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01150933333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.034528</v>
+      </c>
+      <c r="O4">
+        <v>0.003842593234051133</v>
+      </c>
+      <c r="P4">
+        <v>0.004555968558961185</v>
+      </c>
+      <c r="Q4">
+        <v>0.002563911168</v>
+      </c>
+      <c r="R4">
+        <v>0.023075200512</v>
+      </c>
+      <c r="S4">
+        <v>0.0006202005609991402</v>
+      </c>
+      <c r="T4">
+        <v>0.0007353404547540956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.222768</v>
+      </c>
+      <c r="H5">
+        <v>0.668304</v>
+      </c>
+      <c r="I5">
+        <v>0.1614015648347147</v>
+      </c>
+      <c r="J5">
+        <v>0.1614015648347147</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.482754</v>
+      </c>
+      <c r="N5">
+        <v>1.448262</v>
+      </c>
+      <c r="O5">
+        <v>0.1611759083159569</v>
+      </c>
+      <c r="P5">
+        <v>0.1910981272340779</v>
+      </c>
+      <c r="Q5">
+        <v>0.107542143072</v>
+      </c>
+      <c r="R5">
+        <v>0.967879287648</v>
+      </c>
+      <c r="S5">
+        <v>0.02601404381585196</v>
+      </c>
+      <c r="T5">
+        <v>0.03084353677256359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.222768</v>
+      </c>
+      <c r="H6">
+        <v>0.668304</v>
+      </c>
+      <c r="I6">
+        <v>0.1614015648347147</v>
+      </c>
+      <c r="J6">
+        <v>0.1614015648347147</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.4403435</v>
+      </c>
+      <c r="N6">
+        <v>0.880687</v>
+      </c>
+      <c r="O6">
+        <v>0.1470164174373026</v>
+      </c>
+      <c r="P6">
+        <v>0.1162066230967866</v>
+      </c>
+      <c r="Q6">
+        <v>0.09809444080799999</v>
+      </c>
+      <c r="R6">
+        <v>0.588566644848</v>
+      </c>
+      <c r="S6">
+        <v>0.02372867983077429</v>
+      </c>
+      <c r="T6">
+        <v>0.01875593081197927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.09442375279352</v>
-      </c>
-      <c r="H4">
-        <v>1.09442375279352</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.468991974583939</v>
-      </c>
-      <c r="N4">
-        <v>0.468991974583939</v>
-      </c>
-      <c r="O4">
-        <v>0.1879831995978588</v>
-      </c>
-      <c r="P4">
-        <v>0.1879831995978588</v>
-      </c>
-      <c r="Q4">
-        <v>0.5132759568541977</v>
-      </c>
-      <c r="R4">
-        <v>0.5132759568541977</v>
-      </c>
-      <c r="S4">
-        <v>0.1879831995978588</v>
-      </c>
-      <c r="T4">
-        <v>0.1879831995978588</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H7">
+        <v>3.316106</v>
+      </c>
+      <c r="I7">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J7">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9666250000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.93325</v>
+      </c>
+      <c r="O7">
+        <v>0.322724746715536</v>
+      </c>
+      <c r="P7">
+        <v>0.2550922792114143</v>
+      </c>
+      <c r="Q7">
+        <v>1.068476987416667</v>
+      </c>
+      <c r="R7">
+        <v>6.4108619245</v>
+      </c>
+      <c r="S7">
+        <v>0.2584606031914159</v>
+      </c>
+      <c r="T7">
+        <v>0.2042957815459067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H8">
+        <v>3.316106</v>
+      </c>
+      <c r="I8">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J8">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.093967666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.281903</v>
+      </c>
+      <c r="O8">
+        <v>0.3652403342971534</v>
+      </c>
+      <c r="P8">
+        <v>0.4330470018987601</v>
+      </c>
+      <c r="Q8">
+        <v>1.209237581079778</v>
+      </c>
+      <c r="R8">
+        <v>10.883138229718</v>
+      </c>
+      <c r="S8">
+        <v>0.2925100664669054</v>
+      </c>
+      <c r="T8">
+        <v>0.3468143997635358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H9">
+        <v>3.316106</v>
+      </c>
+      <c r="I9">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J9">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01150933333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.034528</v>
+      </c>
+      <c r="O9">
+        <v>0.003842593234051133</v>
+      </c>
+      <c r="P9">
+        <v>0.004555968558961185</v>
+      </c>
+      <c r="Q9">
+        <v>0.01272205644088889</v>
+      </c>
+      <c r="R9">
+        <v>0.114498507968</v>
+      </c>
+      <c r="S9">
+        <v>0.003077418063534879</v>
+      </c>
+      <c r="T9">
+        <v>0.003648739038001845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H10">
+        <v>3.316106</v>
+      </c>
+      <c r="I10">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J10">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.482754</v>
+      </c>
+      <c r="N10">
+        <v>1.448262</v>
+      </c>
+      <c r="O10">
+        <v>0.1611759083159569</v>
+      </c>
+      <c r="P10">
+        <v>0.1910981272340779</v>
+      </c>
+      <c r="Q10">
+        <v>0.5336211453079999</v>
+      </c>
+      <c r="R10">
+        <v>4.802590307771999</v>
+      </c>
+      <c r="S10">
+        <v>0.1290809673172831</v>
+      </c>
+      <c r="T10">
+        <v>0.1530447780541771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H11">
+        <v>3.316106</v>
+      </c>
+      <c r="I11">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J11">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.4403435</v>
+      </c>
+      <c r="N11">
+        <v>0.880687</v>
+      </c>
+      <c r="O11">
+        <v>0.1470164174373026</v>
+      </c>
+      <c r="P11">
+        <v>0.1162066230967866</v>
+      </c>
+      <c r="Q11">
+        <v>0.4867419074703332</v>
+      </c>
+      <c r="R11">
+        <v>2.920451444822</v>
+      </c>
+      <c r="S11">
+        <v>0.1177410543089815</v>
+      </c>
+      <c r="T11">
+        <v>0.09306641094649937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.052073</v>
+      </c>
+      <c r="H12">
+        <v>0.156219</v>
+      </c>
+      <c r="I12">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J12">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.9666250000000001</v>
+      </c>
+      <c r="N12">
+        <v>1.93325</v>
+      </c>
+      <c r="O12">
+        <v>0.322724746715536</v>
+      </c>
+      <c r="P12">
+        <v>0.2550922792114143</v>
+      </c>
+      <c r="Q12">
+        <v>0.050335063625</v>
+      </c>
+      <c r="R12">
+        <v>0.30201038175</v>
+      </c>
+      <c r="S12">
+        <v>0.01217586439334563</v>
+      </c>
+      <c r="T12">
+        <v>0.009624204623531335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.052073</v>
+      </c>
+      <c r="H13">
+        <v>0.156219</v>
+      </c>
+      <c r="I13">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J13">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.093967666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.281903</v>
+      </c>
+      <c r="O13">
+        <v>0.3652403342971534</v>
+      </c>
+      <c r="P13">
+        <v>0.4330470018987601</v>
+      </c>
+      <c r="Q13">
+        <v>0.05696617830633333</v>
+      </c>
+      <c r="R13">
+        <v>0.5126956047569999</v>
+      </c>
+      <c r="S13">
+        <v>0.01377990633393308</v>
+      </c>
+      <c r="T13">
+        <v>0.01633813838178267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.052073</v>
+      </c>
+      <c r="H14">
+        <v>0.156219</v>
+      </c>
+      <c r="I14">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J14">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01150933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.034528</v>
+      </c>
+      <c r="O14">
+        <v>0.003842593234051133</v>
+      </c>
+      <c r="P14">
+        <v>0.004555968558961185</v>
+      </c>
+      <c r="Q14">
+        <v>0.0005993255146666668</v>
+      </c>
+      <c r="R14">
+        <v>0.005393929632000001</v>
+      </c>
+      <c r="S14">
+        <v>0.000144974609517113</v>
+      </c>
+      <c r="T14">
+        <v>0.000171889066205245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.052073</v>
+      </c>
+      <c r="H15">
+        <v>0.156219</v>
+      </c>
+      <c r="I15">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J15">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.482754</v>
+      </c>
+      <c r="N15">
+        <v>1.448262</v>
+      </c>
+      <c r="O15">
+        <v>0.1611759083159569</v>
+      </c>
+      <c r="P15">
+        <v>0.1910981272340779</v>
+      </c>
+      <c r="Q15">
+        <v>0.025138449042</v>
+      </c>
+      <c r="R15">
+        <v>0.226246041378</v>
+      </c>
+      <c r="S15">
+        <v>0.006080897182821856</v>
+      </c>
+      <c r="T15">
+        <v>0.007209812407337248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.052073</v>
+      </c>
+      <c r="H16">
+        <v>0.156219</v>
+      </c>
+      <c r="I16">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J16">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.4403435</v>
+      </c>
+      <c r="N16">
+        <v>0.880687</v>
+      </c>
+      <c r="O16">
+        <v>0.1470164174373026</v>
+      </c>
+      <c r="P16">
+        <v>0.1162066230967866</v>
+      </c>
+      <c r="Q16">
+        <v>0.0229300070755</v>
+      </c>
+      <c r="R16">
+        <v>0.137580042453</v>
+      </c>
+      <c r="S16">
+        <v>0.005546683297546817</v>
+      </c>
+      <c r="T16">
+        <v>0.004384281338307999</v>
       </c>
     </row>
   </sheetData>
